--- a/ShipLosses/PacificMineLosses.xlsx
+++ b/ShipLosses/PacificMineLosses.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\ShipLosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50597125-8A46-4F65-9F7C-083DFC6BC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507CB8A8-3CAF-4428-94E7-C29FB9A83071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PacificMineLosses" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,33 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$5:$H$49</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet1!$A$2:$G$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - Table1" description="Connection to the 'Table1' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - Table1" description="Connection to the 'Table1' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table1]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="641">
   <si>
     <t>Date Ship Type Tons Submarine Evaluation</t>
   </si>
@@ -119,231 +132,48 @@
     <t>Date Submarine</t>
   </si>
   <si>
-    <t>6 Oct 42 THRESHER</t>
-  </si>
-  <si>
-    <t>5 SWP Millican 12-50N loo-44E 32 Mk 12</t>
-  </si>
-  <si>
     <t>SS200</t>
   </si>
   <si>
-    <t>Bangkok Approaches 2 lililures</t>
-  </si>
-  <si>
     <t>20 Oct 42 GAR SS206</t>
   </si>
   <si>
-    <t>4 SWP McGregor 12-35N loo-45E 32 Mk 12</t>
-  </si>
-  <si>
-    <t>Bangkok Approacbes 4 failures</t>
-  </si>
-  <si>
-    <t>25 Oct 42 WHALE</t>
-  </si>
-  <si>
-    <t>I Pac Azer 33-46N 135-IOE 24Mk 10-1</t>
-  </si>
-  <si>
-    <t>SS239</t>
-  </si>
-  <si>
-    <t>Kii Suido 1 tloater</t>
-  </si>
-  <si>
-    <t>290et42 GRENADIER</t>
-  </si>
-  <si>
-    <t>4 SWP Carr 20-38N [07-04E 32Mk 12</t>
-  </si>
-  <si>
-    <t>SS2[0</t>
-  </si>
-  <si>
-    <t>Haiphong Approacbes [ tai1ure</t>
-  </si>
-  <si>
-    <t>2 Nov 42 TAUTOG</t>
-  </si>
-  <si>
-    <t>4 SWP Willingham 1[-ION 108-47E 32 Mk 12</t>
-  </si>
-  <si>
     <t>SS199</t>
   </si>
   <si>
-    <t>Cape Padaran 3 failures</t>
-  </si>
-  <si>
-    <t>2 Nov 42 TAMBOR</t>
-  </si>
-  <si>
-    <t>4 SWP Arnbruster 20-04N [09-18E 32 Mk 12</t>
-  </si>
-  <si>
     <t>SS198</t>
   </si>
   <si>
-    <t>Hainan Strait I failure</t>
-  </si>
-  <si>
-    <t>14 Dec 42 SUNFISH</t>
-  </si>
-  <si>
-    <t>1 Pac Peterson 34-28N 137-20E 24Mk 12</t>
-  </si>
-  <si>
-    <t>17 Dec 42 SS28 1</t>
-  </si>
-  <si>
-    <t>Iseno Umi Bay</t>
-  </si>
-  <si>
     <t>17 Dec 42 DRUMSS228</t>
   </si>
   <si>
-    <t>4 Pac McMahon 32-47N I32-lOE 24 Mk 10-1</t>
-  </si>
-  <si>
-    <t>Bungo Suido</t>
-  </si>
-  <si>
-    <t>20 Dec 42 TRIGGER</t>
-  </si>
-  <si>
-    <t>3 Pac Benson 35-44N 140-56E 19Mk [2</t>
-  </si>
-  <si>
     <t>SS237</t>
   </si>
   <si>
-    <t>Inubo Saki</t>
-  </si>
-  <si>
-    <t>7 Mar 43 TAUTOG</t>
-  </si>
-  <si>
-    <t>6 SWP Sieglaff 02-IOS 116-40E 24 Mk 12</t>
-  </si>
-  <si>
-    <t>SSI99</t>
-  </si>
-  <si>
-    <t>TanjongAru</t>
-  </si>
-  <si>
     <t>7 Apr 43 TROUT SS202</t>
   </si>
   <si>
-    <t>8 SWP Ramage 02-ooN 109-15E 23 Mk 12</t>
-  </si>
-  <si>
     <t>Api Passage</t>
   </si>
   <si>
-    <t>19 Apr 43 SCORPION</t>
-  </si>
-  <si>
-    <t>I Pac Wylie 36-05N 140-45E [2 Mk 12&amp;</t>
-  </si>
-  <si>
     <t>SS278</t>
   </si>
   <si>
-    <t>Inubo Saki IOMk 10-1</t>
-  </si>
-  <si>
-    <t>20 Apr 43 RUNNER</t>
-  </si>
-  <si>
-    <t>2 Pac Fenno 22-15N 114-15E 32 Mk 12</t>
-  </si>
-  <si>
-    <t>SS275</t>
-  </si>
-  <si>
-    <t>Hong Kong**</t>
-  </si>
-  <si>
-    <t>21 Apr 43 STINGRAY</t>
-  </si>
-  <si>
-    <t>7 Pac Earle 28-ION 121-55E 32Mk 12</t>
-  </si>
-  <si>
-    <t>22 Apr 43 SS186</t>
-  </si>
-  <si>
-    <t>WenchnwBay</t>
-  </si>
-  <si>
-    <t>30 Apr 43 SNOOK</t>
-  </si>
-  <si>
-    <t>I Pac Triebel 30-21N 122-30E Sad- 24Mk 12</t>
-  </si>
-  <si>
     <t>SS279</t>
   </si>
   <si>
-    <t>die I.Iand'Â· Shanghai</t>
-  </si>
-  <si>
-    <t>12 May STEELHEAD</t>
-  </si>
-  <si>
-    <t>I Pac Whelchel 42-0m 143-21E 12Mkl2</t>
-  </si>
-  <si>
-    <t>43 SS289</t>
-  </si>
-  <si>
-    <t>Erimo Saki</t>
-  </si>
-  <si>
-    <t>41un43 SILVERSIDES</t>
-  </si>
-  <si>
-    <t>5 PacÂ· Burlingame 02-36S 150-34E 24 Mk 10-1</t>
-  </si>
-  <si>
     <t>SS236</t>
   </si>
   <si>
-    <t>Steffen Strait**' 2 floaters</t>
-  </si>
-  <si>
     <t>Kavieng</t>
   </si>
   <si>
-    <t>2 Oct 43 KINGFISH</t>
-  </si>
-  <si>
-    <t>5 SWP Lowrance 05-105 119-20E 11 Mk 12</t>
-  </si>
-  <si>
     <t>SS234</t>
   </si>
   <si>
-    <t>Cape Pepe Laikang</t>
-  </si>
-  <si>
     <t>Bay</t>
   </si>
   <si>
-    <t>13 Dec 43 POMPON</t>
-  </si>
-  <si>
-    <t>3 SWP Hawk 08-50N 106-05E II Mk 12</t>
-  </si>
-  <si>
-    <t>SS267</t>
-  </si>
-  <si>
-    <t>Pulo Condore</t>
-  </si>
-  <si>
     <t>18 Dec 43 CABRILLA</t>
   </si>
   <si>
@@ -560,21 +390,6 @@
     <t>9 May 45 SS243</t>
   </si>
   <si>
-    <t>Notes: All SWP patrols were from Fremantle, Pac patrols from Pearl Harbor.</t>
-  </si>
-  <si>
-    <t>Roscoe lists Redfin SS272 3rd patrol incorrectly as a mine plant.</t>
-  </si>
-  <si>
-    <t>Blair lists SALMON SS182 6th patrol incorrectly as a mine plant.</t>
-  </si>
-  <si>
-    <t>* Patrol was passage from Pearl Harbor to Fremantle</t>
-  </si>
-  <si>
-    <t>** Mines were also laid by aircraft in the same area.</t>
-  </si>
-  <si>
     <t>TABLE III-SHIPS CLAIMED BY SBS AS SUNK (27)</t>
   </si>
   <si>
@@ -2040,12 +1855,126 @@
   </si>
   <si>
     <t>Evaluation</t>
+  </si>
+  <si>
+    <t>6 Oct 42 THRESHER  SS200</t>
+  </si>
+  <si>
+    <t>5 SWP Millican 12-50N loo-44E 32 Mk 12 Bangkok Approaches 2 failures</t>
+  </si>
+  <si>
+    <t>4 SWP McGregor 12-35N loo-45E 32 Mk 12 Bangkok Approacbes 4 failures</t>
+  </si>
+  <si>
+    <t>25 Oct 42 WHALE SS239</t>
+  </si>
+  <si>
+    <t>I Pac Azer 33-46N 135-IOE 24Mk 10-1 Kii Suido 1 floater</t>
+  </si>
+  <si>
+    <t>290ct42 GRENADIER SS210</t>
+  </si>
+  <si>
+    <t>4 SWP Carr 20-38N [07-04E 32Mk 12 Haiphong Approacbes fai1ure</t>
+  </si>
+  <si>
+    <t>2 Nov 42 TAUTOG SS199</t>
+  </si>
+  <si>
+    <t>4 SWP Willingham 1[-ION 108-47E 32 Mk 12 Cape Padaran 3 failures</t>
+  </si>
+  <si>
+    <t>2 Nov 42 TAMBOR SS198</t>
+  </si>
+  <si>
+    <t>4 SWP Arnbruster 20-04N [09-18E 32 Mk 12 Hainan Strait 1 failure</t>
+  </si>
+  <si>
+    <t>14 Dec 42 SUNFISH SS281</t>
+  </si>
+  <si>
+    <t>1 Pac Peterson 34-28N 137-20E 24Mk 12 Iseno Umi Bay</t>
+  </si>
+  <si>
+    <t>17 Dec 42 SUNFISH SS281</t>
+  </si>
+  <si>
+    <t>4 Pac McMahon 32-47N I32-lOE 24 Mk 10-1 Bungo Suido</t>
+  </si>
+  <si>
+    <t>20 Dec 42 TRIGGER SS237</t>
+  </si>
+  <si>
+    <t>3 Pac Benson 35-44N 140-56E 19Mk 12 Inubo Saki</t>
+  </si>
+  <si>
+    <t>7 Mar 43 TAUTOG SSI99</t>
+  </si>
+  <si>
+    <t>6 SWP Sieglaff 02-IOS 116-40E 24 Mk 12 Tanjong Aru</t>
+  </si>
+  <si>
+    <t>8 SWP Ramage 02-ooN 109-15E 23 Mk 12 Api Passage</t>
+  </si>
+  <si>
+    <t>19 Apr 43 SCORPION SS278</t>
+  </si>
+  <si>
+    <t>1 Pac Wylie 36-05N 140-45E 12 Mk 12&amp; Inubo Saki IOMk 10-1</t>
+  </si>
+  <si>
+    <t>20 Apr 43 RUNNER SS275</t>
+  </si>
+  <si>
+    <t>2 Pac Fenno 22-15N 114-15E 32 Mk 12 Hong Kong**</t>
+  </si>
+  <si>
+    <t>21 Apr 43 STINGRAY SS186</t>
+  </si>
+  <si>
+    <t>22 Apr 43 STINGRAY SS186</t>
+  </si>
+  <si>
+    <t>30 Apr 43 SNOOK SS279</t>
+  </si>
+  <si>
+    <t>7 Pac Earle 28-ION 121-55E 32Mk 12 Wenchow Bay</t>
+  </si>
+  <si>
+    <t>I Pac Triebel 30-21N 122-30E Sad- 24Mk 12 Saddle Island Shanghai</t>
+  </si>
+  <si>
+    <t>12 May 43  STEELHEAD SS289</t>
+  </si>
+  <si>
+    <t>30 May 43  STEELHEAD SS289</t>
+  </si>
+  <si>
+    <t>I Pac Whelchel 42-0m 143-21E 12Mkl2 Erimo Saki</t>
+  </si>
+  <si>
+    <t>4 Jun 43 SILVERSIDES SS236</t>
+  </si>
+  <si>
+    <t>5 PacÂ· Burlingame 02-36S 150-34E 24 Mk 10-1 Steffen Strait Kavieng**' 2 floaters</t>
+  </si>
+  <si>
+    <t>2 Oct 43 KINGFISH SS234</t>
+  </si>
+  <si>
+    <t>5 SWP Lowrance 05-105 119-20E 11 Mk 12 Cape Pepe Laikang Bay</t>
+  </si>
+  <si>
+    <t>13 Dec 43 POMPON SS267</t>
+  </si>
+  <si>
+    <t>3 SWP Hawk 08-50N 106-05E II Mk 12 Pulo Condore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2529,12 +2458,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2678,19 +2606,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Biegert Standard" table="0" count="4">
+    <tableStyle name="Biegert Standard" table="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
       <tableStyleElement type="firstColumn" dxfId="11"/>
       <tableStyleElement type="firstRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Biegert Standard A" pivot="0" count="4">
+    <tableStyle name="Biegert Standard A" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstColumn" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2704,7 +2632,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="7">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
@@ -2720,26 +2648,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A28" totalsRowShown="0">
-  <autoFilter ref="A1:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A28" totalsRowShown="0">
+  <autoFilter ref="A1:A28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TABLE 1 - SHIPS PROBABLY OR POSSIBLY SUNK OR DAMAGED"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TABLE 1 - SHIPS PROBABLY OR POSSIBLY SUNK OR DAMAGED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1_2" displayName="Table1_2" ref="A2:G28" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A2:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1_2" displayName="Table1_2" ref="A2:G28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A2:G28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="Victim" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="Type" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Tonnage" queryTableFieldId="4"/>
-    <tableColumn id="8" uniqueName="8" name="Submarine" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="Hull_Number" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="9" uniqueName="9" name="Evaluation" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Victim" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Type" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Tonnage" queryTableFieldId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Submarine" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Hull_Number" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Evaluation" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3041,11 +2969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K314"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3071,7 +2999,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -3101,7 +3029,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -3204,1887 +3132,2074 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>606</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>608</v>
+      </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>610</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>612</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>614</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>618</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>620</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>625</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>627</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>57</v>
+      <c r="A47" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>632</v>
+      </c>
+      <c r="B49" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>635</v>
+      </c>
+      <c r="B51" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>637</v>
+      </c>
+      <c r="B52" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>639</v>
+      </c>
+      <c r="B53" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E60" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E61" t="s">
         <v>64</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="F62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
         <v>71</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
         <v>73</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E67" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E69" t="s">
         <v>81</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>16330</v>
+      </c>
+      <c r="E70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>83</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E71" t="s">
         <v>85</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E72" t="s">
         <v>87</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D73" t="s">
         <v>89</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E73" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
         <v>91</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s">
         <v>94</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F75" t="s">
         <v>96</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="E76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>99</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="E77" t="s">
         <v>101</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="E78" t="s">
         <v>103</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>104</v>
       </c>
-      <c r="D74" t="s">
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
         <v>105</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E79" t="s">
         <v>106</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="E80" t="s">
         <v>108</v>
-      </c>
-      <c r="E75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" t="s">
-        <v>113</v>
-      </c>
-      <c r="G76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" t="s">
-        <v>113</v>
-      </c>
-      <c r="G80">
-        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>132</v>
+      <c r="A84" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>16330</v>
-      </c>
-      <c r="E90" t="s">
-        <v>143</v>
+      <c r="A90" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>151</v>
-      </c>
-      <c r="F93" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
       <c r="E94" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>156</v>
-      </c>
-      <c r="F95" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>158</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>160</v>
       </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E118" t="s">
         <v>161</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>162</v>
       </c>
-      <c r="F97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C119" t="s">
         <v>163</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E119" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="F119" t="s">
         <v>165</v>
       </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="I119" t="s">
         <v>166</v>
       </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
         <v>167</v>
       </c>
-      <c r="F99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C120">
+        <v>1243</v>
+      </c>
+      <c r="E120" t="s">
         <v>168</v>
       </c>
-      <c r="E100" t="s">
+      <c r="I120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E121" t="s">
         <v>170</v>
       </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>171</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C122" t="s">
         <v>172</v>
       </c>
-      <c r="F101" t="s">
+      <c r="D122" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E122" t="s">
         <v>174</v>
       </c>
-      <c r="E102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="F122" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C123">
+        <v>2090</v>
+      </c>
+      <c r="E123" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="F123" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="I123" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>181</v>
       </c>
-      <c r="E109" t="s">
+      <c r="C125" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E125" t="s">
         <v>183</v>
       </c>
-      <c r="E110" t="s">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B126" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C126">
+        <v>300</v>
+      </c>
+      <c r="E126" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="I126" t="s">
         <v>187</v>
       </c>
-      <c r="E113" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>44</v>
+      </c>
+      <c r="B127" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="E127" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>16296</v>
+      </c>
+      <c r="B129" t="s">
         <v>191</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C129" t="s">
         <v>192</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E129" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="I129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
         <v>194</v>
       </c>
-      <c r="E118" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>16310</v>
+      </c>
+      <c r="B132" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C132">
+        <v>55</v>
+      </c>
+      <c r="E132" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="I132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>197</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E133" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>16354</v>
+      </c>
+      <c r="B134" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C134">
+        <v>880</v>
+      </c>
+      <c r="E134" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="I134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>201</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E135" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="I135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="E136" t="s">
         <v>204</v>
       </c>
-      <c r="E126" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="F136" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>16390</v>
+      </c>
+      <c r="B137" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C137">
+        <v>1320</v>
+      </c>
+      <c r="E137" t="s">
         <v>207</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F137" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="I137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="E138" t="s">
         <v>210</v>
       </c>
-      <c r="E131" t="s">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C139" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="E139" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="I139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
         <v>214</v>
       </c>
-      <c r="E134" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>16463</v>
+      </c>
+      <c r="B141" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C141">
+        <v>6925</v>
+      </c>
+      <c r="E141" t="s">
         <v>216</v>
       </c>
-      <c r="E136" t="s">
+      <c r="I141" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="E142" t="s">
         <v>218</v>
-      </c>
-      <c r="E137" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>221</v>
-      </c>
-      <c r="E139" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>223</v>
-      </c>
-      <c r="E140" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>224</v>
-      </c>
-      <c r="E141" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>226</v>
-      </c>
-      <c r="E142" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145">
+        <v>10045</v>
+      </c>
+      <c r="E145" t="s">
+        <v>222</v>
+      </c>
+      <c r="F145" t="s">
+        <v>223</v>
+      </c>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="E146" t="s">
+        <v>225</v>
+      </c>
+      <c r="I146" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" t="s">
         <v>228</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E147" t="s">
         <v>229</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K147" t="s">
         <v>230</v>
       </c>
-      <c r="F143" t="s">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>25</v>
+      </c>
+      <c r="B148" t="s">
         <v>231</v>
       </c>
-      <c r="I143" t="s">
+      <c r="C148">
+        <v>1339</v>
+      </c>
+      <c r="E148" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>20</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="I148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
         <v>233</v>
       </c>
-      <c r="C144">
-        <v>1243</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="I149" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>234</v>
       </c>
-      <c r="I144" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="C150" t="s">
         <v>235</v>
       </c>
-      <c r="E145" t="s">
+      <c r="D150" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="E150" t="s">
         <v>237</v>
       </c>
-      <c r="C146" t="s">
+      <c r="F150" t="s">
         <v>238</v>
       </c>
-      <c r="D146" t="s">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>16557</v>
+      </c>
+      <c r="B151" t="s">
         <v>239</v>
       </c>
-      <c r="E146" t="s">
+      <c r="C151">
+        <v>2345</v>
+      </c>
+      <c r="E151" t="s">
         <v>240</v>
       </c>
-      <c r="F146" t="s">
+      <c r="I151" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>23</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>242</v>
       </c>
-      <c r="C147">
-        <v>2090</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="E153" t="s">
         <v>243</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F153" t="s">
         <v>244</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I153" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>246</v>
       </c>
-      <c r="I148" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="C154" t="s">
         <v>247</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E154" t="s">
         <v>248</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F154" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>250</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D155" t="s">
         <v>251</v>
       </c>
-      <c r="C150">
+      <c r="E155" t="s">
+        <v>252</v>
+      </c>
+      <c r="H155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="D157" t="s">
+        <v>256</v>
+      </c>
+      <c r="E157" t="s">
+        <v>252</v>
+      </c>
+      <c r="H157" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" t="s">
+        <v>261</v>
+      </c>
+      <c r="C159" t="s">
+        <v>262</v>
+      </c>
+      <c r="D159" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" t="s">
+        <v>266</v>
+      </c>
+      <c r="H160" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>217</v>
+      </c>
+      <c r="D161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>268</v>
+      </c>
+      <c r="C162" t="s">
+        <v>269</v>
+      </c>
+      <c r="D162" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" t="s">
+        <v>272</v>
+      </c>
+      <c r="E163" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" t="s">
+        <v>283</v>
+      </c>
+      <c r="E172" t="s">
+        <v>284</v>
+      </c>
+      <c r="H172" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>285</v>
+      </c>
+      <c r="D173" t="s">
+        <v>286</v>
+      </c>
+      <c r="E173" t="s">
+        <v>287</v>
+      </c>
+      <c r="H173" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>124</v>
+      </c>
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>290</v>
+      </c>
+      <c r="D176" t="s">
+        <v>291</v>
+      </c>
+      <c r="E176" t="s">
+        <v>292</v>
+      </c>
+      <c r="H176" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>295</v>
+      </c>
+      <c r="D178" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>217</v>
+      </c>
+      <c r="D179" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>298</v>
+      </c>
+      <c r="D180" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>300</v>
       </c>
-      <c r="E150" t="s">
-        <v>252</v>
-      </c>
-      <c r="I150" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>44</v>
-      </c>
-      <c r="B151" t="s">
-        <v>254</v>
-      </c>
-      <c r="E151" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>16296</v>
-      </c>
-      <c r="B153" t="s">
-        <v>257</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D181" t="s">
+        <v>301</v>
+      </c>
+      <c r="E181" t="s">
+        <v>302</v>
+      </c>
+      <c r="H181" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>304</v>
+      </c>
+      <c r="D183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E183" t="s">
+        <v>306</v>
+      </c>
+      <c r="H183" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>307</v>
+      </c>
+      <c r="D185" t="s">
+        <v>308</v>
+      </c>
+      <c r="E185" t="s">
+        <v>309</v>
+      </c>
+      <c r="H185" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>258</v>
       </c>
-      <c r="E153" t="s">
-        <v>259</v>
-      </c>
-      <c r="I153" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>16310</v>
-      </c>
-      <c r="B156" t="s">
-        <v>261</v>
-      </c>
-      <c r="C156">
-        <v>55</v>
-      </c>
-      <c r="E156" t="s">
-        <v>262</v>
-      </c>
-      <c r="I156" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>263</v>
-      </c>
-      <c r="E157" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>16354</v>
-      </c>
-      <c r="B158" t="s">
-        <v>265</v>
-      </c>
-      <c r="C158">
-        <v>880</v>
-      </c>
-      <c r="E158" t="s">
-        <v>266</v>
-      </c>
-      <c r="I158" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>267</v>
-      </c>
-      <c r="E159" t="s">
-        <v>268</v>
-      </c>
-      <c r="I159" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>269</v>
-      </c>
-      <c r="E160" t="s">
-        <v>270</v>
-      </c>
-      <c r="F160" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>16390</v>
-      </c>
-      <c r="B161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C161">
-        <v>1320</v>
-      </c>
-      <c r="E161" t="s">
-        <v>273</v>
-      </c>
-      <c r="F161" t="s">
-        <v>274</v>
-      </c>
-      <c r="I161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>275</v>
-      </c>
-      <c r="E162" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>27</v>
-      </c>
-      <c r="B163" t="s">
-        <v>277</v>
-      </c>
-      <c r="C163" t="s">
-        <v>278</v>
-      </c>
-      <c r="E163" t="s">
-        <v>279</v>
-      </c>
-      <c r="I163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>16463</v>
-      </c>
-      <c r="B165" t="s">
-        <v>281</v>
-      </c>
-      <c r="C165">
-        <v>6925</v>
-      </c>
-      <c r="E165" t="s">
-        <v>282</v>
-      </c>
-      <c r="I165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>283</v>
-      </c>
-      <c r="E166" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>22</v>
-      </c>
-      <c r="B169" t="s">
-        <v>287</v>
-      </c>
-      <c r="C169">
-        <v>10045</v>
-      </c>
-      <c r="E169" t="s">
-        <v>288</v>
-      </c>
-      <c r="F169" t="s">
-        <v>289</v>
-      </c>
-      <c r="I169" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>290</v>
-      </c>
-      <c r="E170" t="s">
-        <v>291</v>
-      </c>
-      <c r="I170" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="D186" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>311</v>
+      </c>
+      <c r="D187" t="s">
+        <v>312</v>
+      </c>
+      <c r="E187" t="s">
+        <v>313</v>
+      </c>
+      <c r="H187" t="s">
         <v>293</v>
       </c>
-      <c r="C171" t="s">
-        <v>294</v>
-      </c>
-      <c r="E171" t="s">
-        <v>295</v>
-      </c>
-      <c r="F171" t="s">
-        <v>271</v>
-      </c>
-      <c r="K171" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>25</v>
-      </c>
-      <c r="B172" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172">
-        <v>1339</v>
-      </c>
-      <c r="E172" t="s">
-        <v>298</v>
-      </c>
-      <c r="I172" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E173" t="s">
-        <v>299</v>
-      </c>
-      <c r="I173" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>300</v>
-      </c>
-      <c r="C174" t="s">
-        <v>301</v>
-      </c>
-      <c r="D174" t="s">
-        <v>302</v>
-      </c>
-      <c r="E174" t="s">
-        <v>303</v>
-      </c>
-      <c r="F174" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>16557</v>
-      </c>
-      <c r="B175" t="s">
-        <v>305</v>
-      </c>
-      <c r="C175">
-        <v>2345</v>
-      </c>
-      <c r="E175" t="s">
-        <v>306</v>
-      </c>
-      <c r="I175" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>283</v>
-      </c>
-      <c r="E176" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>308</v>
-      </c>
-      <c r="E177" t="s">
-        <v>309</v>
-      </c>
-      <c r="F177" t="s">
-        <v>310</v>
-      </c>
-      <c r="I177" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>312</v>
-      </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>314</v>
+      </c>
+      <c r="D188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>316</v>
+      </c>
+      <c r="B189" t="s">
+        <v>317</v>
+      </c>
+      <c r="D189" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>15846</v>
+      </c>
+      <c r="B190" t="s">
+        <v>319</v>
+      </c>
+      <c r="C190" t="s">
+        <v>320</v>
+      </c>
+      <c r="D190" t="s">
+        <v>212</v>
+      </c>
+      <c r="F190" t="s">
+        <v>321</v>
+      </c>
+      <c r="G190" t="s">
         <v>313</v>
       </c>
-      <c r="E178" t="s">
-        <v>314</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="H190" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>316</v>
-      </c>
-      <c r="D179" t="s">
-        <v>317</v>
-      </c>
-      <c r="E179" t="s">
-        <v>318</v>
-      </c>
-      <c r="H179" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>321</v>
-      </c>
-      <c r="D181" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>322</v>
       </c>
-      <c r="E181" t="s">
-        <v>318</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="B192" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C192" t="s">
         <v>324</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D192">
+        <v>986</v>
+      </c>
+      <c r="F192" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="G192" t="s">
         <v>326</v>
       </c>
-      <c r="B183" t="s">
+      <c r="H192" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>327</v>
       </c>
-      <c r="C183" t="s">
+      <c r="F193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
         <v>328</v>
       </c>
-      <c r="D183" t="s">
+      <c r="C194" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="D194" t="s">
         <v>330</v>
-      </c>
-      <c r="D184" t="s">
-        <v>331</v>
-      </c>
-      <c r="E184" t="s">
-        <v>332</v>
-      </c>
-      <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>283</v>
-      </c>
-      <c r="D185" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>334</v>
-      </c>
-      <c r="C186" t="s">
-        <v>335</v>
-      </c>
-      <c r="D186" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>337</v>
-      </c>
-      <c r="D187" t="s">
-        <v>338</v>
-      </c>
-      <c r="E187" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>347</v>
+        <v>322</v>
+      </c>
+      <c r="B195" t="s">
+        <v>331</v>
+      </c>
+      <c r="C195" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" t="s">
+        <v>332</v>
+      </c>
+      <c r="F195" t="s">
+        <v>39</v>
+      </c>
+      <c r="G195" t="s">
+        <v>333</v>
+      </c>
+      <c r="H195" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>348</v>
-      </c>
-      <c r="D196" t="s">
-        <v>349</v>
-      </c>
-      <c r="E196" t="s">
-        <v>350</v>
-      </c>
-      <c r="H196" t="s">
-        <v>182</v>
+      <c r="B196" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>351</v>
+        <v>322</v>
+      </c>
+      <c r="B197" t="s">
+        <v>334</v>
+      </c>
+      <c r="C197" t="s">
+        <v>212</v>
       </c>
       <c r="D197" t="s">
-        <v>352</v>
-      </c>
-      <c r="E197" t="s">
-        <v>353</v>
+        <v>332</v>
+      </c>
+      <c r="F197" t="s">
+        <v>39</v>
+      </c>
+      <c r="G197" t="s">
+        <v>333</v>
       </c>
       <c r="H197" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>190</v>
-      </c>
-      <c r="D198" t="s">
-        <v>354</v>
+      <c r="B198" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>355</v>
+        <v>322</v>
+      </c>
+      <c r="B199" t="s">
+        <v>319</v>
+      </c>
+      <c r="C199" t="s">
+        <v>335</v>
+      </c>
+      <c r="D199" t="s">
+        <v>336</v>
+      </c>
+      <c r="F199" t="s">
+        <v>39</v>
+      </c>
+      <c r="G199" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>356</v>
-      </c>
-      <c r="D200" t="s">
-        <v>357</v>
-      </c>
-      <c r="E200" t="s">
-        <v>358</v>
-      </c>
-      <c r="H200" t="s">
-        <v>359</v>
+      <c r="B200" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D201" t="s">
-        <v>360</v>
+      <c r="B201" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>340</v>
+      </c>
+      <c r="B202" t="s">
+        <v>341</v>
+      </c>
+      <c r="C202" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202">
+        <v>648</v>
+      </c>
+      <c r="F202" t="s">
+        <v>39</v>
+      </c>
+      <c r="H202" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" t="s">
+        <v>343</v>
+      </c>
+      <c r="F204" t="s">
+        <v>344</v>
+      </c>
+      <c r="G204" t="s">
+        <v>345</v>
+      </c>
+      <c r="H204" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>347</v>
+      </c>
+      <c r="C205" t="s">
+        <v>348</v>
+      </c>
+      <c r="E205" t="s">
+        <v>349</v>
+      </c>
+      <c r="F205" t="s">
+        <v>350</v>
+      </c>
+      <c r="G205" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>352</v>
+      </c>
+      <c r="C206" t="s">
+        <v>353</v>
+      </c>
+      <c r="D206" t="s">
+        <v>354</v>
+      </c>
+      <c r="E206" t="s">
+        <v>355</v>
+      </c>
+      <c r="F206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>16022</v>
+      </c>
+      <c r="B207" t="s">
+        <v>357</v>
+      </c>
+      <c r="C207" t="s">
+        <v>358</v>
+      </c>
+      <c r="D207">
+        <v>2156</v>
+      </c>
+      <c r="F207" t="s">
+        <v>359</v>
+      </c>
+      <c r="G207" t="s">
+        <v>360</v>
+      </c>
+      <c r="H207" t="s">
         <v>361</v>
       </c>
-      <c r="D202" t="s">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>283</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="F208" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="H208" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>364</v>
       </c>
-      <c r="D204" t="s">
+      <c r="C209" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="F209" t="s">
         <v>366</v>
-      </c>
-      <c r="D205" t="s">
-        <v>367</v>
-      </c>
-      <c r="E205" t="s">
-        <v>368</v>
-      </c>
-      <c r="H205" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D206" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>370</v>
-      </c>
-      <c r="D207" t="s">
-        <v>371</v>
-      </c>
-      <c r="E207" t="s">
-        <v>372</v>
-      </c>
-      <c r="H207" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D208" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>373</v>
-      </c>
-      <c r="D209" t="s">
-        <v>374</v>
-      </c>
-      <c r="E209" t="s">
-        <v>375</v>
-      </c>
-      <c r="H209" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>367</v>
+      </c>
+      <c r="B210" t="s">
+        <v>368</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210" t="s">
+        <v>369</v>
+      </c>
+      <c r="F210" t="s">
+        <v>370</v>
+      </c>
+      <c r="G210" t="s">
+        <v>292</v>
+      </c>
+      <c r="H210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>16145</v>
+      </c>
+      <c r="B211" t="s">
+        <v>371</v>
+      </c>
+      <c r="C211" t="s">
         <v>324</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211">
+        <v>7158</v>
+      </c>
+      <c r="F211" t="s">
+        <v>372</v>
+      </c>
+      <c r="G211" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="F212" t="s">
+        <v>374</v>
+      </c>
+      <c r="G212" t="s">
+        <v>375</v>
+      </c>
+      <c r="H212" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>377</v>
       </c>
-      <c r="D211" t="s">
+      <c r="C213" t="s">
         <v>378</v>
       </c>
-      <c r="E211" t="s">
+      <c r="D213" t="s">
         <v>379</v>
       </c>
-      <c r="H211" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="E213" t="s">
         <v>380</v>
       </c>
-      <c r="D212" t="s">
+      <c r="F213" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="G213" t="s">
         <v>382</v>
       </c>
-      <c r="B213" t="s">
+      <c r="H213" t="s">
         <v>383</v>
-      </c>
-      <c r="D213" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>15846</v>
+        <v>16150</v>
       </c>
       <c r="B214" t="s">
+        <v>384</v>
+      </c>
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+      <c r="D214">
+        <v>544</v>
+      </c>
+      <c r="F214" t="s">
+        <v>321</v>
+      </c>
+      <c r="G214" t="s">
+        <v>313</v>
+      </c>
+      <c r="H214" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>385</v>
       </c>
-      <c r="C214" t="s">
+      <c r="F215" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>16171</v>
+      </c>
+      <c r="B216" t="s">
         <v>386</v>
       </c>
-      <c r="D214" t="s">
-        <v>278</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="C216" t="s">
         <v>387</v>
       </c>
-      <c r="G214" t="s">
-        <v>379</v>
-      </c>
-      <c r="H214" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F215" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="D216">
+        <v>9418</v>
+      </c>
+      <c r="F216" t="s">
         <v>388</v>
       </c>
-      <c r="B216" t="s">
+      <c r="G216" t="s">
         <v>389</v>
       </c>
-      <c r="C216" t="s">
-        <v>390</v>
-      </c>
-      <c r="D216">
-        <v>986</v>
-      </c>
-      <c r="F216" t="s">
-        <v>391</v>
-      </c>
-      <c r="G216" t="s">
-        <v>392</v>
-      </c>
       <c r="H216" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="F217" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>394</v>
-      </c>
-      <c r="C218" t="s">
-        <v>395</v>
-      </c>
-      <c r="D218" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="2">
+        <v>16171</v>
+      </c>
+      <c r="B219" t="s">
+        <v>392</v>
+      </c>
+      <c r="C219" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219">
+        <v>5136</v>
+      </c>
+      <c r="F219" t="s">
         <v>388</v>
       </c>
-      <c r="B219" t="s">
-        <v>397</v>
-      </c>
-      <c r="C219" t="s">
-        <v>278</v>
-      </c>
-      <c r="D219" t="s">
-        <v>398</v>
-      </c>
-      <c r="F219" t="s">
-        <v>93</v>
-      </c>
       <c r="G219" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H219" t="s">
-        <v>208</v>
+        <v>393</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>324</v>
+        <v>385</v>
+      </c>
+      <c r="F220" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>388</v>
+      <c r="A221" s="2">
+        <v>16246</v>
       </c>
       <c r="B221" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C221" t="s">
-        <v>278</v>
-      </c>
-      <c r="D221" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D221">
+        <v>4645</v>
       </c>
       <c r="F221" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="G221" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="H221" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>254</v>
+        <v>396</v>
+      </c>
+      <c r="F222" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>388</v>
-      </c>
       <c r="B223" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C223" t="s">
+        <v>399</v>
+      </c>
+      <c r="D223" t="s">
+        <v>400</v>
+      </c>
+      <c r="F223" t="s">
         <v>401</v>
       </c>
-      <c r="D223" t="s">
+      <c r="G223" t="s">
         <v>402</v>
       </c>
-      <c r="F223" t="s">
-        <v>93</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5092,63 +5207,87 @@
       <c r="B224" t="s">
         <v>404</v>
       </c>
+      <c r="C224" t="s">
+        <v>405</v>
+      </c>
+      <c r="D224" t="s">
+        <v>406</v>
+      </c>
+      <c r="F224" t="s">
+        <v>407</v>
+      </c>
+      <c r="G224" t="s">
+        <v>408</v>
+      </c>
+      <c r="H224" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>16272</v>
+      </c>
       <c r="B225" t="s">
-        <v>405</v>
+        <v>410</v>
+      </c>
+      <c r="C225" t="s">
+        <v>212</v>
+      </c>
+      <c r="D225">
+        <v>4246</v>
+      </c>
+      <c r="F225" t="s">
+        <v>411</v>
+      </c>
+      <c r="G225" t="s">
+        <v>302</v>
+      </c>
+      <c r="H225" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>406</v>
-      </c>
       <c r="B226" t="s">
-        <v>407</v>
-      </c>
-      <c r="C226" t="s">
-        <v>401</v>
-      </c>
-      <c r="D226">
-        <v>648</v>
+        <v>258</v>
       </c>
       <c r="F226" t="s">
-        <v>93</v>
-      </c>
-      <c r="H226" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>16318</v>
+      </c>
+      <c r="B227" t="s">
+        <v>412</v>
+      </c>
+      <c r="C227" t="s">
+        <v>212</v>
+      </c>
       <c r="F227" t="s">
-        <v>98</v>
+        <v>413</v>
+      </c>
+      <c r="G227" t="s">
+        <v>373</v>
+      </c>
+      <c r="H227" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>408</v>
-      </c>
-      <c r="C228" t="s">
-        <v>409</v>
-      </c>
       <c r="F228" t="s">
-        <v>410</v>
-      </c>
-      <c r="G228" t="s">
-        <v>411</v>
-      </c>
-      <c r="H228" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>16383</v>
+      </c>
       <c r="B229" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C229" t="s">
-        <v>414</v>
-      </c>
-      <c r="E229" t="s">
-        <v>415</v>
+        <v>212</v>
       </c>
       <c r="F229" t="s">
         <v>416</v>
@@ -5156,1166 +5295,782 @@
       <c r="G229" t="s">
         <v>417</v>
       </c>
+      <c r="H229" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
+        <v>188</v>
+      </c>
+      <c r="F230" t="s">
         <v>418</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B231" t="s">
         <v>419</v>
       </c>
-      <c r="D230" t="s">
+      <c r="C231" t="s">
+        <v>212</v>
+      </c>
+      <c r="F231" t="s">
         <v>420</v>
       </c>
-      <c r="E230" t="s">
+      <c r="G231" t="s">
+        <v>417</v>
+      </c>
+      <c r="H231" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>44</v>
+      </c>
+      <c r="B232" t="s">
         <v>421</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F232" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>16561</v>
+      </c>
+      <c r="B233" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>16022</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="C233" t="s">
         <v>423</v>
       </c>
-      <c r="C231" t="s">
+      <c r="F233" t="s">
         <v>424</v>
       </c>
-      <c r="D231">
-        <v>2156</v>
-      </c>
-      <c r="F231" t="s">
-        <v>425</v>
-      </c>
-      <c r="G231" t="s">
-        <v>426</v>
-      </c>
-      <c r="H231" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>428</v>
-      </c>
-      <c r="F232" t="s">
-        <v>429</v>
-      </c>
-      <c r="H232" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>430</v>
-      </c>
-      <c r="C233" t="s">
-        <v>431</v>
-      </c>
-      <c r="F233" t="s">
-        <v>432</v>
+      <c r="G233" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>433</v>
-      </c>
       <c r="B234" t="s">
-        <v>434</v>
-      </c>
-      <c r="C234" t="s">
-        <v>278</v>
-      </c>
-      <c r="D234" t="s">
-        <v>435</v>
+        <v>188</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
-      </c>
-      <c r="G234" t="s">
-        <v>358</v>
-      </c>
-      <c r="H234" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>16145</v>
+        <v>16564</v>
       </c>
       <c r="B235" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C235" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235">
-        <v>7158</v>
+        <v>425</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
-      </c>
-      <c r="G235" t="s">
-        <v>439</v>
+        <v>426</v>
+      </c>
+      <c r="H235" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
-        <v>283</v>
-      </c>
       <c r="F236" t="s">
-        <v>440</v>
-      </c>
-      <c r="G236" t="s">
-        <v>441</v>
-      </c>
-      <c r="H236" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
+        <v>428</v>
+      </c>
+      <c r="D237" t="s">
+        <v>429</v>
+      </c>
+      <c r="E237" t="s">
+        <v>430</v>
+      </c>
+      <c r="F237" t="s">
+        <v>431</v>
+      </c>
+      <c r="G237" t="s">
+        <v>432</v>
+      </c>
+      <c r="H237" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>433</v>
+      </c>
+      <c r="C238" t="s">
+        <v>434</v>
+      </c>
+      <c r="D238" t="s">
+        <v>435</v>
+      </c>
+      <c r="F238" t="s">
+        <v>436</v>
+      </c>
+      <c r="G238" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B239" t="s">
+        <v>438</v>
+      </c>
+      <c r="C239" t="s">
+        <v>212</v>
+      </c>
+      <c r="F239" t="s">
+        <v>439</v>
+      </c>
+      <c r="G239" t="s">
+        <v>292</v>
+      </c>
+      <c r="H239" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>45</v>
+      </c>
+      <c r="B240" t="s">
+        <v>440</v>
+      </c>
+      <c r="F240" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B241" t="s">
+        <v>441</v>
+      </c>
+      <c r="C241" t="s">
+        <v>212</v>
+      </c>
+      <c r="F241" t="s">
+        <v>442</v>
+      </c>
+      <c r="G241" t="s">
         <v>443</v>
       </c>
-      <c r="C237" t="s">
-        <v>444</v>
-      </c>
-      <c r="D237" t="s">
-        <v>445</v>
-      </c>
-      <c r="E237" t="s">
-        <v>446</v>
-      </c>
-      <c r="F237" t="s">
-        <v>447</v>
-      </c>
-      <c r="G237" t="s">
-        <v>448</v>
-      </c>
-      <c r="H237" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>16150</v>
-      </c>
-      <c r="B238" t="s">
-        <v>450</v>
-      </c>
-      <c r="C238" t="s">
-        <v>278</v>
-      </c>
-      <c r="D238">
-        <v>544</v>
-      </c>
-      <c r="F238" t="s">
-        <v>387</v>
-      </c>
-      <c r="G238" t="s">
-        <v>379</v>
-      </c>
-      <c r="H238" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>451</v>
-      </c>
-      <c r="F239" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>16171</v>
-      </c>
-      <c r="B240" t="s">
-        <v>452</v>
-      </c>
-      <c r="C240" t="s">
-        <v>453</v>
-      </c>
-      <c r="D240">
-        <v>9418</v>
-      </c>
-      <c r="F240" t="s">
-        <v>454</v>
-      </c>
-      <c r="G240" t="s">
-        <v>455</v>
-      </c>
-      <c r="H240" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>283</v>
-      </c>
-      <c r="F241" t="s">
-        <v>456</v>
+      <c r="H241" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>457</v>
+      <c r="A242">
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>16171</v>
+        <v>16617</v>
       </c>
       <c r="B243" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
-        <v>278</v>
-      </c>
-      <c r="D243">
-        <v>5136</v>
+        <v>423</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G243" t="s">
-        <v>455</v>
-      </c>
-      <c r="H243" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>16246</v>
-      </c>
       <c r="B245" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C245" t="s">
-        <v>461</v>
-      </c>
-      <c r="D245">
-        <v>4645</v>
+        <v>423</v>
       </c>
       <c r="F245" t="s">
-        <v>438</v>
-      </c>
-      <c r="G245" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H245" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F246" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>464</v>
-      </c>
-      <c r="C247" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D247" t="s">
-        <v>466</v>
+        <v>452</v>
+      </c>
+      <c r="E247" t="s">
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G247" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H247" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C248" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D248" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="F248" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="G248" t="s">
-        <v>474</v>
-      </c>
-      <c r="H248" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>16272</v>
+      <c r="A249">
+        <f>- - 45</f>
+        <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C249" t="s">
-        <v>278</v>
-      </c>
-      <c r="D249">
-        <v>4246</v>
+        <v>212</v>
       </c>
       <c r="F249" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="G249" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="H249" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>324</v>
-      </c>
-      <c r="F250" t="s">
-        <v>369</v>
+      <c r="A250" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>16318</v>
-      </c>
-      <c r="B251" t="s">
-        <v>478</v>
-      </c>
-      <c r="C251" t="s">
-        <v>278</v>
+      <c r="A251" t="s">
+        <v>464</v>
       </c>
       <c r="F251" t="s">
-        <v>479</v>
-      </c>
-      <c r="G251" t="s">
-        <v>439</v>
-      </c>
-      <c r="H251" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" t="s">
+        <v>467</v>
+      </c>
+      <c r="C252" t="s">
+        <v>468</v>
+      </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>283</v>
+      </c>
+      <c r="G252" t="s">
+        <v>284</v>
+      </c>
+      <c r="H252" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>16383</v>
+        <v>15704</v>
       </c>
       <c r="B253" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C253" t="s">
-        <v>278</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G253" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="H253" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>472</v>
+      </c>
+      <c r="H254" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>45246</v>
-      </c>
       <c r="B255" t="s">
-        <v>485</v>
-      </c>
-      <c r="C255" t="s">
-        <v>278</v>
+        <v>474</v>
+      </c>
+      <c r="D255" t="s">
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G255" t="s">
-        <v>483</v>
-      </c>
-      <c r="H255" t="s">
-        <v>208</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>44</v>
-      </c>
       <c r="B256" t="s">
-        <v>487</v>
+        <v>478</v>
+      </c>
+      <c r="C256" t="s">
+        <v>479</v>
+      </c>
+      <c r="D256" t="s">
+        <v>480</v>
+      </c>
+      <c r="E256" t="s">
+        <v>481</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>16561</v>
+        <v>15732</v>
       </c>
       <c r="B257" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C257" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G257" t="s">
-        <v>318</v>
+        <v>302</v>
+      </c>
+      <c r="H257" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F258" t="s">
-        <v>381</v>
+        <v>485</v>
+      </c>
+      <c r="H258" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>16564</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="H259" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>488</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" t="s">
+        <v>489</v>
+      </c>
+      <c r="D260" t="s">
+        <v>490</v>
+      </c>
+      <c r="E260" t="s">
         <v>491</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F260" t="s">
         <v>492</v>
       </c>
-      <c r="H259" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F260" t="s">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>15757</v>
+      </c>
+      <c r="B261" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>494</v>
       </c>
-      <c r="D261" t="s">
+      <c r="F261" t="s">
         <v>495</v>
       </c>
-      <c r="E261" t="s">
-        <v>496</v>
-      </c>
-      <c r="F261" t="s">
-        <v>497</v>
-      </c>
       <c r="G261" t="s">
-        <v>498</v>
+        <v>302</v>
       </c>
       <c r="H261" t="s">
-        <v>445</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
+        <v>217</v>
+      </c>
+      <c r="F262" t="s">
+        <v>496</v>
+      </c>
+      <c r="H262" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
         <v>499</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C264" t="s">
         <v>500</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D264" t="s">
         <v>501</v>
-      </c>
-      <c r="F262" t="s">
-        <v>502</v>
-      </c>
-      <c r="G262" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>45072</v>
-      </c>
-      <c r="B263" t="s">
-        <v>504</v>
-      </c>
-      <c r="C263" t="s">
-        <v>278</v>
-      </c>
-      <c r="F263" t="s">
-        <v>505</v>
-      </c>
-      <c r="G263" t="s">
-        <v>358</v>
-      </c>
-      <c r="H263" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>45</v>
-      </c>
-      <c r="B264" t="s">
-        <v>506</v>
-      </c>
-      <c r="F264" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>45075</v>
+        <v>45072</v>
       </c>
       <c r="B265" t="s">
-        <v>507</v>
-      </c>
-      <c r="C265" t="s">
-        <v>278</v>
+        <v>502</v>
+      </c>
+      <c r="D265" t="s">
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
-      </c>
-      <c r="G265" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H265" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B266" t="s">
+        <v>505</v>
+      </c>
+      <c r="D266" t="s">
+        <v>506</v>
+      </c>
+      <c r="H266" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>16617</v>
-      </c>
-      <c r="B267" t="s">
-        <v>510</v>
-      </c>
-      <c r="C267" t="s">
-        <v>489</v>
-      </c>
-      <c r="F267" t="s">
-        <v>511</v>
-      </c>
-      <c r="G267" t="s">
-        <v>512</v>
+      <c r="H267" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
+        <v>507</v>
+      </c>
+      <c r="C268" t="s">
+        <v>508</v>
+      </c>
+      <c r="D268" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B269" t="s">
+        <v>510</v>
+      </c>
+      <c r="D269" t="s">
+        <v>511</v>
+      </c>
+      <c r="F269" t="s">
+        <v>462</v>
+      </c>
+      <c r="H269" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>43</v>
+      </c>
+      <c r="B270" t="s">
+        <v>512</v>
+      </c>
+      <c r="D270" t="s">
         <v>513</v>
       </c>
-      <c r="F268" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+      <c r="H270" t="s">
         <v>514</v>
-      </c>
-      <c r="C269" t="s">
-        <v>489</v>
-      </c>
-      <c r="F269" t="s">
-        <v>515</v>
-      </c>
-      <c r="H269" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>516</v>
-      </c>
-      <c r="F270" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
+        <v>515</v>
+      </c>
+      <c r="C271" t="s">
+        <v>516</v>
+      </c>
+      <c r="D271" t="s">
         <v>517</v>
       </c>
-      <c r="D271" t="s">
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B272" t="s">
         <v>518</v>
       </c>
-      <c r="E271" t="s">
+      <c r="D272" t="s">
         <v>519</v>
       </c>
-      <c r="F271" t="s">
-        <v>520</v>
-      </c>
-      <c r="G271" t="s">
-        <v>521</v>
-      </c>
-      <c r="H271" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>523</v>
-      </c>
-      <c r="C272" t="s">
-        <v>524</v>
-      </c>
-      <c r="D272" t="s">
-        <v>500</v>
-      </c>
       <c r="F272" t="s">
-        <v>501</v>
-      </c>
-      <c r="G272" t="s">
-        <v>525</v>
+        <v>462</v>
+      </c>
+      <c r="H272" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f>- - 45</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B273" t="s">
-        <v>526</v>
-      </c>
-      <c r="C273" t="s">
-        <v>278</v>
-      </c>
-      <c r="F273" t="s">
-        <v>527</v>
-      </c>
-      <c r="G273" t="s">
-        <v>528</v>
+        <v>124</v>
+      </c>
+      <c r="D273" t="s">
+        <v>513</v>
       </c>
       <c r="H273" t="s">
-        <v>319</v>
+        <v>497</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>529</v>
+      <c r="H274" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>530</v>
-      </c>
-      <c r="F275" t="s">
-        <v>531</v>
+      <c r="B275" t="s">
+        <v>520</v>
+      </c>
+      <c r="C275" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>532</v>
+      <c r="A276" s="2">
+        <v>15902</v>
       </c>
       <c r="B276" t="s">
-        <v>533</v>
-      </c>
-      <c r="C276" t="s">
-        <v>534</v>
+        <v>522</v>
+      </c>
+      <c r="D276" t="s">
+        <v>39</v>
       </c>
       <c r="F276" t="s">
-        <v>349</v>
-      </c>
-      <c r="G276" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="H276" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>15704</v>
-      </c>
-      <c r="B277" t="s">
-        <v>535</v>
-      </c>
-      <c r="C277" t="s">
-        <v>536</v>
-      </c>
-      <c r="F277" t="s">
-        <v>537</v>
-      </c>
-      <c r="G277" t="s">
-        <v>372</v>
-      </c>
       <c r="H277" t="s">
-        <v>184</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
-        <v>283</v>
-      </c>
-      <c r="F278" t="s">
-        <v>538</v>
-      </c>
       <c r="H278" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D279" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="G279" t="s">
-        <v>543</v>
+        <v>182</v>
+      </c>
+      <c r="H279" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>544</v>
-      </c>
-      <c r="C280" t="s">
-        <v>545</v>
-      </c>
-      <c r="D280" t="s">
-        <v>546</v>
-      </c>
-      <c r="E280" t="s">
-        <v>547</v>
-      </c>
-      <c r="F280" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>15732</v>
+        <v>15927</v>
       </c>
       <c r="B281" t="s">
-        <v>549</v>
-      </c>
-      <c r="C281" t="s">
-        <v>536</v>
+        <v>528</v>
+      </c>
+      <c r="D281" t="s">
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
-      </c>
-      <c r="G281" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="H281" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>283</v>
-      </c>
-      <c r="F282" t="s">
-        <v>551</v>
+        <v>217</v>
+      </c>
+      <c r="D282" t="s">
+        <v>530</v>
       </c>
       <c r="H282" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H283" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="C284" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="D284" t="s">
-        <v>556</v>
-      </c>
-      <c r="E284" t="s">
-        <v>557</v>
-      </c>
-      <c r="F284" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>15757</v>
+        <v>15965</v>
       </c>
       <c r="B285" t="s">
-        <v>559</v>
-      </c>
-      <c r="C285" t="s">
-        <v>560</v>
+        <v>534</v>
+      </c>
+      <c r="D285" t="s">
+        <v>39</v>
       </c>
       <c r="F285" t="s">
-        <v>561</v>
-      </c>
-      <c r="G285" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="H285" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>283</v>
-      </c>
-      <c r="F286" t="s">
-        <v>562</v>
+        <v>217</v>
       </c>
       <c r="H286" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H287" t="s">
-        <v>564</v>
+      <c r="H287">
+        <v>-112</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>535</v>
+      </c>
       <c r="B288" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="C288" t="s">
-        <v>566</v>
-      </c>
-      <c r="D288" t="s">
-        <v>567</v>
+        <v>537</v>
+      </c>
+      <c r="F288" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>45072</v>
+      <c r="A289" t="s">
+        <v>539</v>
       </c>
       <c r="B289" t="s">
-        <v>568</v>
-      </c>
-      <c r="D289" t="s">
-        <v>569</v>
+        <v>540</v>
+      </c>
+      <c r="C289" t="s">
+        <v>541</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>542</v>
+      </c>
+      <c r="G289" t="s">
+        <v>532</v>
       </c>
       <c r="H289" t="s">
-        <v>184</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>43</v>
-      </c>
-      <c r="B290" t="s">
-        <v>571</v>
-      </c>
-      <c r="D290" t="s">
-        <v>572</v>
-      </c>
-      <c r="H290" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H291" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
-        <v>573</v>
-      </c>
-      <c r="C292" t="s">
-        <v>574</v>
-      </c>
-      <c r="D292" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>45076</v>
-      </c>
-      <c r="B293" t="s">
-        <v>576</v>
-      </c>
-      <c r="D293" t="s">
-        <v>577</v>
-      </c>
-      <c r="F293" t="s">
-        <v>528</v>
-      </c>
-      <c r="H293" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>43</v>
-      </c>
-      <c r="B294" t="s">
-        <v>578</v>
-      </c>
-      <c r="D294" t="s">
-        <v>579</v>
-      </c>
-      <c r="H294" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
-        <v>581</v>
-      </c>
-      <c r="C295" t="s">
-        <v>582</v>
-      </c>
-      <c r="D295" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>45076</v>
-      </c>
-      <c r="B296" t="s">
-        <v>584</v>
-      </c>
-      <c r="D296" t="s">
-        <v>585</v>
-      </c>
-      <c r="F296" t="s">
-        <v>528</v>
-      </c>
-      <c r="H296" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>43</v>
-      </c>
-      <c r="B297" t="s">
-        <v>190</v>
-      </c>
-      <c r="D297" t="s">
-        <v>579</v>
-      </c>
-      <c r="H297" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H298" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>586</v>
-      </c>
-      <c r="C299" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
-        <v>15902</v>
-      </c>
-      <c r="B300" t="s">
-        <v>588</v>
-      </c>
-      <c r="D300" t="s">
-        <v>93</v>
-      </c>
-      <c r="F300" t="s">
-        <v>399</v>
-      </c>
-      <c r="H300" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H301" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H302" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
-        <v>589</v>
-      </c>
-      <c r="D303" t="s">
-        <v>590</v>
-      </c>
-      <c r="F303" t="s">
-        <v>591</v>
-      </c>
-      <c r="G303" t="s">
-        <v>248</v>
-      </c>
-      <c r="H303" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
-        <v>15927</v>
-      </c>
-      <c r="B305" t="s">
-        <v>594</v>
-      </c>
-      <c r="D305" t="s">
-        <v>595</v>
-      </c>
-      <c r="F305" t="s">
-        <v>392</v>
-      </c>
-      <c r="H305" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
-        <v>283</v>
-      </c>
-      <c r="D306" t="s">
-        <v>596</v>
-      </c>
-      <c r="H306" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H307" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
-        <v>597</v>
-      </c>
-      <c r="C308" t="s">
-        <v>598</v>
-      </c>
-      <c r="D308" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
-        <v>15965</v>
-      </c>
-      <c r="B309" t="s">
-        <v>600</v>
-      </c>
-      <c r="D309" t="s">
-        <v>93</v>
-      </c>
-      <c r="F309" t="s">
-        <v>399</v>
-      </c>
-      <c r="H309" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>283</v>
-      </c>
-      <c r="H310" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H311">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>601</v>
-      </c>
-      <c r="B312" t="s">
-        <v>602</v>
-      </c>
-      <c r="C312" t="s">
-        <v>603</v>
-      </c>
-      <c r="F312" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>605</v>
-      </c>
-      <c r="B313" t="s">
-        <v>606</v>
-      </c>
-      <c r="C313" t="s">
-        <v>607</v>
-      </c>
-      <c r="F313" t="s">
-        <v>608</v>
-      </c>
-      <c r="G313" t="s">
-        <v>598</v>
-      </c>
-      <c r="H313" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>529</v>
+      <c r="A290" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6328,11 +6083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="A2:G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6350,623 +6105,623 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="F2" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>52155</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>617</v>
+      <c r="B3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" t="s">
+        <v>551</v>
       </c>
       <c r="D3">
         <v>5245</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>618</v>
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>52200</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>1521</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>621</v>
+      <c r="E4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>52220</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>617</v>
+      <c r="B5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" t="s">
+        <v>551</v>
       </c>
       <c r="D5">
         <v>3893</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>623</v>
+      <c r="E5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>52229</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>617</v>
+      <c r="B6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" t="s">
+        <v>551</v>
       </c>
       <c r="D6">
         <v>2558</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>623</v>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>52229</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>617</v>
+      <c r="B7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" t="s">
+        <v>551</v>
       </c>
       <c r="D7">
         <v>5198</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>623</v>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>52251</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>617</v>
+      <c r="B8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" t="s">
+        <v>551</v>
       </c>
       <c r="D8">
         <v>3964</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>629</v>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>562</v>
+      </c>
+      <c r="G8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>52282</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>560</v>
+      <c r="B9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" t="s">
+        <v>494</v>
       </c>
       <c r="D9">
         <v>2920</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>629</v>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>52358</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>632</v>
+      <c r="B10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" t="s">
+        <v>566</v>
       </c>
       <c r="D10">
         <v>1994</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>634</v>
+      <c r="E10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" t="s">
+        <v>567</v>
+      </c>
+      <c r="G10" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>52377</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>489</v>
+      <c r="B11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" t="s">
+        <v>423</v>
       </c>
       <c r="D11">
         <v>5236</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>618</v>
+      <c r="G11" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>52381</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>617</v>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>551</v>
       </c>
       <c r="D12">
         <v>1992</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>638</v>
+      <c r="E12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>52381</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>617</v>
+      <c r="B13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" t="s">
+        <v>551</v>
       </c>
       <c r="D13">
         <v>3948</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>629</v>
+      <c r="E13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>52427</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>641</v>
+      <c r="B14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" t="s">
+        <v>575</v>
       </c>
       <c r="D14">
         <v>5170</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>629</v>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>52439</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>617</v>
+      <c r="B15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" t="s">
+        <v>551</v>
       </c>
       <c r="D15">
         <v>1972</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>634</v>
+      <c r="E15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>52452</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>644</v>
+      <c r="B16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C16" t="s">
+        <v>578</v>
       </c>
       <c r="D16">
         <v>3295</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>629</v>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>52490</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>646</v>
+      <c r="B17" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" t="s">
+        <v>580</v>
       </c>
       <c r="D17">
         <v>2693</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>647</v>
+      <c r="E17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>52508</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>390</v>
+      <c r="B18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" t="s">
+        <v>324</v>
       </c>
       <c r="D18">
         <v>986</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>629</v>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>52508</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>401</v>
+      <c r="B19" t="s">
+        <v>583</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
       </c>
       <c r="D19">
         <v>648</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>650</v>
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>52647</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>652</v>
+      <c r="B20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" t="s">
+        <v>586</v>
       </c>
       <c r="D20">
         <v>1243</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>629</v>
+      <c r="E20" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" t="s">
+        <v>587</v>
+      </c>
+      <c r="G20" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>52647</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>655</v>
+      <c r="B21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C21" t="s">
+        <v>589</v>
       </c>
       <c r="D21">
         <v>1243</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>623</v>
+      <c r="E21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" t="s">
+        <v>587</v>
+      </c>
+      <c r="G21" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>52670</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>390</v>
+      <c r="B22" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
       </c>
       <c r="D22">
         <v>7158</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>629</v>
+      <c r="E22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" t="s">
+        <v>591</v>
+      </c>
+      <c r="G22" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>52696</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23">
         <v>9418</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>659</v>
+      <c r="E23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>52779</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>617</v>
+      <c r="B24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>551</v>
       </c>
       <c r="D24">
         <v>3098</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>634</v>
+      <c r="E24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>52988</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>617</v>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>551</v>
       </c>
       <c r="D25">
         <v>6925</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>664</v>
+      <c r="E25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F25" t="s">
+        <v>597</v>
+      </c>
+      <c r="G25" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>53082</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>489</v>
+      <c r="B26" t="s">
+        <v>599</v>
+      </c>
+      <c r="C26" t="s">
+        <v>423</v>
       </c>
       <c r="D26">
         <v>2345</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>623</v>
+      <c r="E26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>53089</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>491</v>
+      <c r="B27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>425</v>
       </c>
       <c r="D27">
         <v>920</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>618</v>
+      <c r="E27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>53142</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>489</v>
+      <c r="B28" t="s">
+        <v>600</v>
+      </c>
+      <c r="C28" t="s">
+        <v>423</v>
       </c>
       <c r="D28">
         <v>1914</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>629</v>
+      <c r="E28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
